--- a/tour/4/entry_form.xlsx
+++ b/tour/4/entry_form.xlsx
@@ -12,9 +12,9 @@
     <sheet name="記入例" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">記入例!$A$1:$J$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">申込用紙!$A$1:$J$40</definedName>
-    <definedName name="ランク">list!$B$2:$B$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">記入例!$A$1:$J$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">申込用紙!$A$1:$J$38</definedName>
+    <definedName name="ランク">list!$B$2:$B$5</definedName>
     <definedName name="性別">list!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>性別</t>
     <rPh sb="0" eb="2">
@@ -253,25 +253,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成年部（40歳以上限定）</t>
-    <rPh sb="0" eb="2">
-      <t>セイネン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ゲンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -303,37 +284,6 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成年部は混合（男女割合自由）のため、性別は未選択でかまいません。</t>
-    <rPh sb="0" eb="2">
-      <t>セイネン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コンゴウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ダンジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ワリアイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジユウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -524,12 +474,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -733,7 +689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,27 +762,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -843,6 +799,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,9 +1105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1157,10 +1118,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="37" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1183,11 +1144,6 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1154,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1215,7 +1171,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -1225,36 +1181,36 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" ht="10.050000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
@@ -1397,107 +1353,107 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="24">
+      <c r="B17" s="30">
         <v>1</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="24">
+      <c r="E17" s="30">
         <v>1</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="24">
+      <c r="H17" s="30">
         <v>1</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="24"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="15"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="15"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="24">
+      <c r="B19" s="30">
         <v>2</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="24">
+      <c r="E19" s="30">
         <v>2</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="24">
+      <c r="H19" s="30">
         <v>2</v>
       </c>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="24"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="15"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="15"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="15"/>
     </row>
     <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="24">
+      <c r="B21" s="30">
         <v>3</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="24">
+      <c r="E21" s="30">
         <v>3</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="24">
+      <c r="H21" s="30">
         <v>3</v>
       </c>
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="24"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="15"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="15"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="24"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="24">
+      <c r="B23" s="30">
         <v>4</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="24">
+      <c r="E23" s="30">
         <v>4</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="24">
+      <c r="H23" s="30">
         <v>4</v>
       </c>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="24"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="15"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="15"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="15"/>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1550,7 +1506,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -1585,7 +1541,6 @@
     </row>
     <row r="33" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -1598,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -1609,6 +1564,7 @@
     </row>
     <row r="35" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -1621,41 +1577,23 @@
         <v>9</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
@@ -1671,12 +1609,6 @@
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -1694,7 +1626,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1711,7 +1643,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -1907,123 +1839,123 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="24">
+      <c r="B17" s="30">
         <v>1</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="24">
+      <c r="E17" s="30">
         <v>1</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="24">
+      <c r="H17" s="30">
         <v>1</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="24"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="15"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="24">
+      <c r="B19" s="30">
         <v>2</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="24">
+      <c r="E19" s="30">
         <v>2</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="24">
+      <c r="H19" s="30">
         <v>2</v>
       </c>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="24"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="15"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="15"/>
     </row>
     <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="24">
+      <c r="B21" s="30">
         <v>3</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="24">
+      <c r="E21" s="30">
         <v>3</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="24">
+      <c r="H21" s="30">
         <v>3</v>
       </c>
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="24"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="15"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="24"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="24">
+      <c r="B23" s="30">
         <v>4</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="24">
+      <c r="E23" s="30">
         <v>4</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="24">
+      <c r="H23" s="30">
         <v>4</v>
       </c>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="24"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="15"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="15"/>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2076,7 +2008,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -2111,7 +2043,6 @@
     </row>
     <row r="33" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -2124,7 +2055,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -2135,6 +2066,7 @@
     </row>
     <row r="35" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -2147,53 +2079,17 @@
         <v>9</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="H21:H22"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="H27:H28"/>
@@ -2203,6 +2099,18 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="H25:H26"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H17:H18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
